--- a/fio.xlsx
+++ b/fio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fio_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fio_sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -441,10 +441,8 @@
 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  307736.0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +460,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  76934.0</t>
+          <t>2022-11-24 11:45:55  71.9</t>
         </is>
       </c>
     </row>
@@ -479,10 +477,8 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  273986.0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -500,7 +496,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  68496.0</t>
+          <t>2022-11-24 11:45:55  63.9</t>
         </is>
       </c>
     </row>
@@ -517,10 +513,8 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  309609.0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -538,7 +532,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  77402.0</t>
+          <t>2022-11-24 11:45:55  72.9</t>
         </is>
       </c>
     </row>
@@ -555,10 +549,8 @@
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  273690.0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="9">
@@ -576,7 +568,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  68422.0</t>
+          <t>2022-11-24 11:45:55  67.3</t>
         </is>
       </c>
     </row>
@@ -593,10 +585,8 @@
 </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  82567.0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>80.2</v>
       </c>
     </row>
     <row r="11">
@@ -614,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  20641.0</t>
+          <t>2022-11-24 11:45:55  20.5</t>
         </is>
       </c>
     </row>
@@ -631,10 +621,8 @@
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:47:43  174241.0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +640,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-09-14 14:47:43  43560.0</t>
+          <t>2022-11-24 11:45:55  43.3</t>
         </is>
       </c>
     </row>
@@ -676,10 +664,8 @@
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  500919.0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="16">
@@ -697,7 +683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  3913.0</t>
+          <t>2022-11-24 11:45:55  4242.0</t>
         </is>
       </c>
     </row>
@@ -714,10 +700,8 @@
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  318538.0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="18">
@@ -735,7 +719,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  2488.0</t>
+          <t>2022-11-24 11:45:55  3081.0</t>
         </is>
       </c>
     </row>
@@ -752,10 +736,8 @@
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  500526.0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>491</v>
       </c>
     </row>
     <row r="20">
@@ -773,7 +755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  3910.0</t>
+          <t>2022-11-24 11:45:55  3929.0</t>
         </is>
       </c>
     </row>
@@ -786,14 +768,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">随机读磁盘的吞吐量
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  445899.0</t>
-        </is>
+          <t xml:space="preserve">随机读磁i盘的吞吐量
+</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>436</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +791,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  3483.0</t>
+          <t>2022-11-24 11:45:55  3489.0</t>
         </is>
       </c>
     </row>
@@ -828,10 +808,8 @@
 </t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  154746.0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -849,7 +827,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  1208.0</t>
+          <t>2022-11-24 11:45:55  1098.0</t>
         </is>
       </c>
     </row>
@@ -866,10 +844,8 @@
 </t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:48:32  310894.0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="26">
@@ -887,7 +863,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022-09-14 14:48:32  2428.0</t>
+          <t>2022-11-24 11:45:55  2246.0</t>
         </is>
       </c>
     </row>
@@ -911,10 +887,8 @@
 </t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  513490.0</t>
-        </is>
+      <c r="C28" t="n">
+        <v>547</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +906,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  501.0</t>
+          <t>2022-11-24 11:45:55  546.0</t>
         </is>
       </c>
     </row>
@@ -949,10 +923,8 @@
 </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  504047.0</t>
-        </is>
+      <c r="C30" t="n">
+        <v>541</v>
       </c>
     </row>
     <row r="31">
@@ -970,7 +942,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  492.0</t>
+          <t>2022-11-24 11:45:55  541.0</t>
         </is>
       </c>
     </row>
@@ -987,10 +959,8 @@
 </t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  517463.0</t>
-        </is>
+      <c r="C32" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +978,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  505.0</t>
+          <t>2022-11-24 11:45:55  508.0</t>
         </is>
       </c>
     </row>
@@ -1025,10 +995,8 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  506516.0</t>
-        </is>
+      <c r="C34" t="n">
+        <v>497</v>
       </c>
     </row>
     <row r="35">
@@ -1046,7 +1014,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  494.0</t>
+          <t>2022-11-24 11:45:55  496.0</t>
         </is>
       </c>
     </row>
@@ -1063,10 +1031,8 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  111240.0</t>
-        </is>
+      <c r="C36" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1084,7 +1050,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  108.0</t>
+          <t>2022-11-24 11:45:55  121.0</t>
         </is>
       </c>
     </row>
@@ -1101,10 +1067,8 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2022-09-14 14:49:20  381023.0</t>
-        </is>
+      <c r="C38" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -1122,11 +1086,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-09-14 14:49:20  372.0</t>
+          <t>2022-11-24 11:45:55  284.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>